--- a/3D_Boids_Render/exchangeInfo_90.xlsx
+++ b/3D_Boids_Render/exchangeInfo_90.xlsx
@@ -294,13 +294,13 @@
         <v>79</v>
       </c>
       <c r="C6" s="0">
-        <v>63.419080283617802</v>
+        <v>63.515417455901485</v>
       </c>
       <c r="D6" s="0">
-        <v>117.2534503889557</v>
+        <v>117.29209021665143</v>
       </c>
       <c r="E6" s="0">
-        <v>9.9995046169667425</v>
+        <v>9.9995145695705894</v>
       </c>
       <c r="F6" s="0">
         <v>65</v>
